--- a/Project3/improved_data_7.xlsx
+++ b/Project3/improved_data_7.xlsx
@@ -1,37 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\ComputationalPhysics\Projects\Gruppe\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09469AA-8C7E-455D-99F1-B009548B2A39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59466C94-3932-8C4F-8D93-11D6B827763D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="improved_data_7" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>AVG</t>
-  </si>
-  <si>
     <t>STD</t>
   </si>
   <si>
-    <t>INT</t>
+    <t>Integral</t>
   </si>
   <si>
-    <t>TIME</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -40,14 +50,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,28 +95,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +124,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,14 +132,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -137,14 +147,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -152,7 +162,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,14 +170,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -875,167 +885,170 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>3.2223203019999999E-4</v>
+      </c>
+      <c r="C2">
+        <v>0.19318331823708301</v>
+      </c>
+      <c r="D2">
+        <v>1.2376885360000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>3.1950690979999999E-4</v>
+      </c>
+      <c r="C3">
+        <v>0.192744463943128</v>
+      </c>
+      <c r="D3">
+        <v>1.178290938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>3.3689657110000002E-4</v>
+      </c>
+      <c r="C4">
+        <v>0.19327051164581899</v>
+      </c>
+      <c r="D4">
+        <v>1.1390751480000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3.3213365690000003E-4</v>
+      </c>
+      <c r="C5">
+        <v>0.19263311767095001</v>
+      </c>
+      <c r="D5">
+        <v>1.1249183599999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3.284337143E-4</v>
+      </c>
+      <c r="C6">
+        <v>0.19271499062258801</v>
+      </c>
+      <c r="D6">
+        <v>1.093733616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3.4623432640000002E-4</v>
+      </c>
+      <c r="C7">
+        <v>0.19301500816112499</v>
+      </c>
+      <c r="D7">
+        <v>1.160220424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3.3932393529999998E-4</v>
+      </c>
+      <c r="C8">
+        <v>0.19315322580387601</v>
+      </c>
+      <c r="D8">
+        <v>1.0950663869999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3.3456597529999999E-4</v>
+      </c>
+      <c r="C9">
+        <v>0.19306418997781399</v>
+      </c>
+      <c r="D9">
+        <v>1.0940708210000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>3.2635084460000001E-4</v>
+      </c>
+      <c r="C10">
+        <v>0.19261901135423401</v>
+      </c>
+      <c r="D10">
+        <v>1.090719979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>3.2573301800000002E-4</v>
+      </c>
+      <c r="C11">
+        <v>0.19287027138466201</v>
+      </c>
+      <c r="D11">
+        <v>1.0906927200000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B2">
-        <v>3.2231311329999999E-4</v>
-      </c>
-      <c r="C2">
-        <v>0.19294053336505501</v>
-      </c>
-      <c r="D2">
-        <v>2.0311682000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B3">
-        <v>3.2606663480000002E-4</v>
-      </c>
-      <c r="C3">
-        <v>0.19288729574829799</v>
-      </c>
-      <c r="D3">
-        <v>2.6374582000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>3.2617498810000003E-4</v>
-      </c>
-      <c r="C4">
-        <v>0.193194865332139</v>
-      </c>
-      <c r="D4">
-        <v>2.3771485999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>3.2575991769999999E-4</v>
-      </c>
-      <c r="C5">
-        <v>0.19271108464435999</v>
-      </c>
-      <c r="D5">
-        <v>2.0132620000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3.1911355559999997E-4</v>
-      </c>
-      <c r="C6">
-        <v>0.192099070970394</v>
-      </c>
-      <c r="D6">
-        <v>2.0018438000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>3.2554973080000001E-4</v>
-      </c>
-      <c r="C7">
-        <v>0.19313332803025399</v>
-      </c>
-      <c r="D7">
-        <v>2.1064951000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>3.2324708149999998E-4</v>
-      </c>
-      <c r="C8">
-        <v>0.19268511160660601</v>
-      </c>
-      <c r="D8">
-        <v>2.1894724000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>3.2304285860000002E-4</v>
-      </c>
-      <c r="C9">
-        <v>0.192461873055188</v>
-      </c>
-      <c r="D9">
-        <v>2.0029835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>3.3174952019999999E-4</v>
-      </c>
-      <c r="C10">
-        <v>0.19356154240432899</v>
-      </c>
-      <c r="D10">
-        <v>2.0144549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>3.2559897800000002E-4</v>
-      </c>
-      <c r="C11">
-        <v>0.19279695279797401</v>
-      </c>
-      <c r="D11">
-        <v>2.0674655999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>0</v>
       </c>
       <c r="B13">
         <f>AVERAGE(B2:B11)</f>
-        <v>3.2486163786000003E-4</v>
+        <v>3.3114109818999993E-4</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="0">AVERAGE(C2:C11)</f>
-        <v>0.19284716579545969</v>
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.19292681088012792</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>2.1441752299999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1.1304476929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <f>_xlfn.STDEV.P(B2:B11)</f>
-        <v>3.1288025823301424E-6</v>
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>8.2654192988172106E-6</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:D14" si="1">_xlfn.STDEV.P(C2:C11)</f>
-        <v>3.8455727737468415E-4</v>
+        <f>_xlfn.STDEV.S(C2:C11)</f>
+        <v>2.4132802153539276E-4</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0.1984666823380542</v>
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>4.9286895635553447E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Project3/improved_data_7.xlsx
+++ b/Project3/improved_data_7.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59466C94-3932-8C4F-8D93-11D6B827763D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB1F5F-5F42-AB43-9E47-45CB3D205477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="improved_data_7" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>STD</t>
   </si>
@@ -43,11 +43,17 @@
   <si>
     <t>Avg</t>
   </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -881,140 +887,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>3.2223203019999999E-4</v>
       </c>
       <c r="C2">
+        <f>B2^2</f>
+        <v>1.0383348128681371E-7</v>
+      </c>
+      <c r="D2">
         <v>0.19318331823708301</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.2376885360000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>3.1950690979999999E-4</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3^2</f>
+        <v>1.0208466540994533E-7</v>
+      </c>
+      <c r="D3">
         <v>0.192744463943128</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.178290938</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3.3689657110000002E-4</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.1349929961893737E-7</v>
+      </c>
+      <c r="D4">
         <v>0.19327051164581899</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.1390751480000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3.3213365690000003E-4</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.1031276604576694E-7</v>
+      </c>
+      <c r="D5">
         <v>0.19263311767095001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.1249183599999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3.284337143E-4</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.0786870468889402E-7</v>
+      </c>
+      <c r="D6">
         <v>0.19271499062258801</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.093733616</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3.4623432640000002E-4</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.1987820877766177E-7</v>
+      </c>
+      <c r="D7">
         <v>0.19301500816112499</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.160220424</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3.3932393529999998E-4</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.1514073306747857E-7</v>
+      </c>
+      <c r="D8">
         <v>0.19315322580387601</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.0950663869999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>3.3456597529999999E-4</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.1193439182844021E-7</v>
+      </c>
+      <c r="D9">
         <v>0.19306418997781399</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.0940708210000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>3.2635084460000001E-4</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.0650487377113336E-7</v>
+      </c>
+      <c r="D10">
         <v>0.19261901135423401</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.090719979</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>3.2573301800000002E-4</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.0610199901538833E-7</v>
+      </c>
+      <c r="D11">
         <v>0.19287027138466201</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.0906927200000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1024,28 +1074,37 @@
       </c>
       <c r="C13">
         <f>AVERAGE(C2:C11)</f>
-        <v>0.19292681088012792</v>
+        <v>1.0971591235104596E-7</v>
       </c>
       <c r="D13">
         <f>AVERAGE(D2:D11)</f>
+        <v>0.19292681088012792</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E2:E11)</f>
         <v>1.1304476929</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
-        <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>8.2654192988172106E-6</v>
-      </c>
-      <c r="C14">
-        <f>_xlfn.STDEV.S(C2:C11)</f>
-        <v>2.4132802153539276E-4</v>
-      </c>
       <c r="D14">
         <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>2.4132802153539276E-4</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.STDEV.S(E2:E11)</f>
         <v>4.9286895635553447E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(C13)</f>
+        <v>3.3123392391336666E-4</v>
       </c>
     </row>
   </sheetData>
